--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2314"/>
+  <dimension ref="A1:G2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57556,10 +57556,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -57589,10 +57587,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -57622,10 +57618,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -57655,10 +57649,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -57688,10 +57680,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -57721,10 +57711,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -57754,10 +57742,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -57787,10 +57773,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -57816,10 +57800,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -57845,10 +57827,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -57874,10 +57854,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -57899,10 +57877,8 @@
       </c>
       <c r="E2218" t="inlineStr"/>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -57924,10 +57900,8 @@
       </c>
       <c r="E2219" t="inlineStr"/>
       <c r="F2219" t="inlineStr"/>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -57949,10 +57923,8 @@
       </c>
       <c r="E2220" t="inlineStr"/>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -57974,10 +57946,8 @@
       </c>
       <c r="E2221" t="inlineStr"/>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -57999,10 +57969,8 @@
       </c>
       <c r="E2222" t="inlineStr"/>
       <c r="F2222" t="inlineStr"/>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -58028,10 +57996,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -58057,10 +58023,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -58090,10 +58054,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2226">
@@ -58111,10 +58073,8 @@
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr"/>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2227">
@@ -58144,10 +58104,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2228">
@@ -58177,10 +58135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -58206,10 +58162,8 @@
         </is>
       </c>
       <c r="F2229" t="inlineStr"/>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -58231,10 +58185,8 @@
       </c>
       <c r="E2230" t="inlineStr"/>
       <c r="F2230" t="inlineStr"/>
-      <c r="G2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -58256,10 +58208,8 @@
       </c>
       <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -58281,10 +58231,8 @@
       </c>
       <c r="E2232" t="inlineStr"/>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -58306,10 +58254,8 @@
       </c>
       <c r="E2233" t="inlineStr"/>
       <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2234">
@@ -58327,10 +58273,8 @@
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr"/>
       <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -58352,10 +58296,8 @@
       </c>
       <c r="E2235" t="inlineStr"/>
       <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2236">
@@ -58377,10 +58319,8 @@
       </c>
       <c r="E2236" t="inlineStr"/>
       <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -58402,10 +58342,8 @@
       </c>
       <c r="E2237" t="inlineStr"/>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -58427,10 +58365,8 @@
       </c>
       <c r="E2238" t="inlineStr"/>
       <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -58448,112 +58384,118 @@
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr"/>
       <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2240" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
+        </is>
+      </c>
       <c r="C2240" t="inlineStr"/>
-      <c r="D2240" t="inlineStr"/>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E2240" t="inlineStr"/>
-      <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr"/>
+      <c r="F2240" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr"/>
       <c r="D2241" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2241" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2241" t="inlineStr"/>
       <c r="F2241" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr"/>
       <c r="D2242" t="inlineStr">
         <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2242" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2242" t="inlineStr"/>
       <c r="F2242" t="inlineStr">
         <is>
-          <t>1.29M</t>
+          <t>0.69M</t>
         </is>
       </c>
       <c r="G2242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr"/>
       <c r="D2243" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2243" t="inlineStr"/>
       <c r="F2243" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G2243" t="inlineStr">
@@ -58565,86 +58507,74 @@
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr"/>
-      <c r="D2244" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
+      <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr"/>
-      <c r="F2244" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Kansas Fed Composite IndexJUL</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr"/>
       <c r="D2245" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2245" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr"/>
       <c r="D2246" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2246" t="inlineStr"/>
       <c r="F2246" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G2246" t="inlineStr">
@@ -58656,30 +58586,18 @@
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr"/>
-      <c r="D2247" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2247" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F2247" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="D2247" t="inlineStr"/>
+      <c r="E2247" t="inlineStr"/>
+      <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr">
         <is>
           <t>3</t>
@@ -58689,30 +58607,18 @@
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr"/>
-      <c r="D2248" t="inlineStr">
-        <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2248" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
-      <c r="F2248" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
+      <c r="D2248" t="inlineStr"/>
+      <c r="E2248" t="inlineStr"/>
+      <c r="F2248" t="inlineStr"/>
       <c r="G2248" t="inlineStr">
         <is>
           <t>3</t>
@@ -58722,26 +58628,22 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr"/>
       <c r="D2249" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2249" t="inlineStr"/>
-      <c r="F2249" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="F2249" t="inlineStr"/>
       <c r="G2249" t="inlineStr">
         <is>
           <t>3</t>
@@ -58751,20 +58653,16 @@
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>15-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr"/>
-      <c r="D2250" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
+      <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr"/>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr">
@@ -58776,20 +58674,16 @@
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr"/>
-      <c r="D2251" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
+      <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr"/>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr">
@@ -58801,133 +58695,165 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2252" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJUL/23</t>
+        </is>
+      </c>
       <c r="C2252" t="inlineStr"/>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr"/>
+      <c r="G2252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2253">
-      <c r="A2253" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2253" t="inlineStr"/>
+      <c r="A2253" t="inlineStr"/>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>Building Permits FinalJUN</t>
+        </is>
+      </c>
       <c r="C2253" t="inlineStr"/>
-      <c r="D2253" t="inlineStr"/>
-      <c r="E2253" t="inlineStr"/>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>1.394M</t>
+        </is>
+      </c>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>1.39M</t>
+        </is>
+      </c>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr"/>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2254">
-      <c r="A2254" t="inlineStr">
-        <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2254" t="inlineStr"/>
+      <c r="A2254" t="inlineStr"/>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalJUN</t>
+        </is>
+      </c>
       <c r="C2254" t="inlineStr"/>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr"/>
+      <c r="G2254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2255" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJUN</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr"/>
       <c r="C2255" t="inlineStr"/>
-      <c r="D2255" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr"/>
-      <c r="F2255" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2255" t="inlineStr"/>
+      <c r="G2255" t="inlineStr"/>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr"/>
       <c r="D2256" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="E2256" t="inlineStr"/>
-      <c r="F2256" t="inlineStr"/>
+      <c r="F2256" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr"/>
       <c r="D2257" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2257" t="inlineStr"/>
-      <c r="F2257" t="inlineStr"/>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2258" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
+        </is>
+      </c>
       <c r="C2258" t="inlineStr"/>
-      <c r="D2258" t="inlineStr"/>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>15.5%</t>
+        </is>
+      </c>
       <c r="E2258" t="inlineStr"/>
-      <c r="F2258" t="inlineStr"/>
-      <c r="G2258" t="inlineStr"/>
+      <c r="F2258" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="G2258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
@@ -58937,36 +58863,40 @@
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr"/>
-      <c r="D2259" t="inlineStr"/>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2259" t="inlineStr"/>
-      <c r="F2259" t="inlineStr"/>
+      <c r="F2259" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr"/>
-      <c r="D2260" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
@@ -58978,26 +58908,18 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr"/>
-      <c r="D2261" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr"/>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
           <t>3</t>
@@ -59007,1287 +58929,15 @@
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2262" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr"/>
       <c r="C2262" t="inlineStr"/>
-      <c r="D2262" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr"/>
-      <c r="F2262" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr"/>
-      <c r="D2263" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E2263" t="inlineStr"/>
-      <c r="F2263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2264">
-      <c r="A2264" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2264" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
-      <c r="C2264" t="inlineStr"/>
-      <c r="D2264" t="inlineStr"/>
-      <c r="E2264" t="inlineStr"/>
-      <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2265">
-      <c r="A2265" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2265" t="inlineStr">
-        <is>
-          <t>Money SupplyJUN</t>
-        </is>
-      </c>
-      <c r="C2265" t="inlineStr"/>
-      <c r="D2265" t="inlineStr">
-        <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E2265" t="inlineStr"/>
-      <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2266">
-      <c r="A2266" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2266" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2266" t="inlineStr"/>
-      <c r="D2266" t="inlineStr">
-        <is>
-          <t>19.1M</t>
-        </is>
-      </c>
-      <c r="E2266" t="inlineStr"/>
-      <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2267">
-      <c r="A2267" t="inlineStr">
-        <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2267" t="inlineStr"/>
-      <c r="C2267" t="inlineStr"/>
-      <c r="D2267" t="inlineStr"/>
-      <c r="E2267" t="inlineStr"/>
-      <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
-    </row>
-    <row r="2268">
-      <c r="A2268" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2268" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
-        </is>
-      </c>
-      <c r="C2268" t="inlineStr"/>
-      <c r="D2268" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
-      <c r="E2268" t="inlineStr"/>
-      <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2269">
-      <c r="A2269" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2269" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
-        </is>
-      </c>
-      <c r="C2269" t="inlineStr"/>
-      <c r="D2269" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
-      <c r="E2269" t="inlineStr"/>
-      <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2270">
-      <c r="A2270" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2270" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2270" t="inlineStr"/>
-      <c r="D2270" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
-      <c r="E2270" t="inlineStr"/>
-      <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2271">
-      <c r="A2271" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2271" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2271" t="inlineStr"/>
-      <c r="D2271" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E2271" t="inlineStr"/>
-      <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2272">
-      <c r="A2272" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2272" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2272" t="inlineStr"/>
-      <c r="D2272" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2272" t="inlineStr"/>
-      <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2273">
-      <c r="A2273" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2273" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2273" t="inlineStr"/>
-      <c r="D2273" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2273" t="inlineStr"/>
-      <c r="F2273" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2274" t="inlineStr"/>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2275">
-      <c r="A2275" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2275" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2275" t="inlineStr"/>
-      <c r="D2275" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr"/>
-      <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2276">
-      <c r="A2276" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr"/>
-      <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2277">
-      <c r="A2277" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2277" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2277" t="inlineStr"/>
-      <c r="D2277" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2277" t="inlineStr"/>
-      <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2278">
-      <c r="A2278" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2278" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2278" t="inlineStr"/>
-      <c r="D2278" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2278" t="inlineStr"/>
-      <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2279">
-      <c r="A2279" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2279" t="inlineStr"/>
-      <c r="D2279" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr"/>
-      <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2280">
-      <c r="A2280" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2280" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2280" t="inlineStr"/>
-      <c r="D2280" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2280" t="inlineStr"/>
-      <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2281">
-      <c r="A2281" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr"/>
-      <c r="D2281" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr"/>
-      <c r="F2281" t="inlineStr"/>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2282">
-      <c r="A2282" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2282" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2282" t="inlineStr"/>
-      <c r="D2282" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr"/>
-      <c r="F2282" t="inlineStr"/>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2283">
-      <c r="A2283" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2283" t="inlineStr"/>
-      <c r="D2283" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2283" t="inlineStr"/>
-      <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2284">
-      <c r="A2284" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2284" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2284" t="inlineStr"/>
-      <c r="D2284" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2285">
-      <c r="A2285" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2285" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2285" t="inlineStr"/>
-      <c r="D2285" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2286">
-      <c r="A2286" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
-      <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
-      <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
-    </row>
-    <row r="2287">
-      <c r="A2287" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2288">
-      <c r="A2288" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr"/>
-      <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2290">
-      <c r="A2290" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2290" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2290" t="inlineStr"/>
-      <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr"/>
-      <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2291">
-      <c r="A2291" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2291" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2291" t="inlineStr"/>
-      <c r="D2291" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2291" t="inlineStr"/>
-      <c r="F2291" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2292">
-      <c r="A2292" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2292" t="inlineStr"/>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2293">
-      <c r="A2293" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2293" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2293" t="inlineStr"/>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2294">
-      <c r="A2294" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2294" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2294" t="inlineStr"/>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2295" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2296" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2297">
-      <c r="A2297" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2298">
-      <c r="A2298" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2298" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2299">
-      <c r="A2299" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2299" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2299" t="inlineStr"/>
-      <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2300">
-      <c r="A2300" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2300" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2300" t="inlineStr"/>
-      <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2301">
-      <c r="A2301" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2302">
-      <c r="A2302" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2302" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr"/>
-      <c r="F2302" t="inlineStr"/>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2303">
-      <c r="A2303" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2303" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr"/>
-      <c r="E2303" t="inlineStr"/>
-      <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr"/>
-      <c r="E2304" t="inlineStr"/>
-      <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr"/>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr"/>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr"/>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr"/>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr"/>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr"/>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr"/>
+      <c r="F2262" t="inlineStr"/>
+      <c r="G2262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2312"/>
+  <dimension ref="A1:G2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57543,10 +57543,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -57576,10 +57574,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -57609,10 +57605,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -57642,10 +57636,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -57675,10 +57667,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -57708,10 +57698,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -57741,10 +57729,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -57770,10 +57756,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -57799,10 +57783,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -57828,10 +57810,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -57853,10 +57833,8 @@
       </c>
       <c r="E2216" t="inlineStr"/>
       <c r="F2216" t="inlineStr"/>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -57878,10 +57856,8 @@
       </c>
       <c r="E2217" t="inlineStr"/>
       <c r="F2217" t="inlineStr"/>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -57903,10 +57879,8 @@
       </c>
       <c r="E2218" t="inlineStr"/>
       <c r="F2218" t="inlineStr"/>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -57928,10 +57902,8 @@
       </c>
       <c r="E2219" t="inlineStr"/>
       <c r="F2219" t="inlineStr"/>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -57953,10 +57925,8 @@
       </c>
       <c r="E2220" t="inlineStr"/>
       <c r="F2220" t="inlineStr"/>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -57982,10 +57952,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -58011,10 +57979,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -58044,10 +58010,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2224">
@@ -58065,10 +58029,8 @@
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr"/>
       <c r="F2224" t="inlineStr"/>
-      <c r="G2224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2225">
@@ -58098,10 +58060,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2226">
@@ -58131,10 +58091,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -58160,10 +58118,8 @@
         </is>
       </c>
       <c r="F2227" t="inlineStr"/>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -58185,10 +58141,8 @@
       </c>
       <c r="E2228" t="inlineStr"/>
       <c r="F2228" t="inlineStr"/>
-      <c r="G2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -58210,10 +58164,8 @@
       </c>
       <c r="E2229" t="inlineStr"/>
       <c r="F2229" t="inlineStr"/>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -58235,10 +58187,8 @@
       </c>
       <c r="E2230" t="inlineStr"/>
       <c r="F2230" t="inlineStr"/>
-      <c r="G2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -58260,10 +58210,8 @@
       </c>
       <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -58281,10 +58229,8 @@
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr"/>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -58306,10 +58252,8 @@
       </c>
       <c r="E2233" t="inlineStr"/>
       <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -58331,10 +58275,8 @@
       </c>
       <c r="E2234" t="inlineStr"/>
       <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2235">
@@ -58356,10 +58298,8 @@
       </c>
       <c r="E2235" t="inlineStr"/>
       <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -58381,10 +58321,8 @@
       </c>
       <c r="E2236" t="inlineStr"/>
       <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -58402,90 +58340,72 @@
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr"/>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2238" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2238" t="inlineStr"/>
-      <c r="D2238" t="inlineStr"/>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2238" t="inlineStr"/>
       <c r="F2238" t="inlineStr"/>
-      <c r="G2238" t="inlineStr"/>
+      <c r="G2238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr"/>
       <c r="D2239" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2239" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2239" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+          <t>4.942%</t>
+        </is>
+      </c>
+      <c r="E2239" t="inlineStr"/>
+      <c r="F2239" t="inlineStr"/>
       <c r="G2239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2240" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr"/>
       <c r="C2240" t="inlineStr"/>
-      <c r="D2240" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2240" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2240" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2240" t="inlineStr"/>
+      <c r="E2240" t="inlineStr"/>
+      <c r="F2240" t="inlineStr"/>
+      <c r="G2240" t="inlineStr"/>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
@@ -58495,19 +58415,19 @@
       </c>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr"/>
       <c r="D2241" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2241" t="inlineStr"/>
       <c r="F2241" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2241" t="inlineStr">
@@ -58524,21 +58444,13 @@
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr"/>
-      <c r="D2242" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
+      <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr"/>
-      <c r="F2242" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr">
         <is>
           <t>2</t>
@@ -58548,59 +58460,39 @@
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Continuing Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr"/>
-      <c r="D2243" t="inlineStr">
-        <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2243" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F2243" t="inlineStr">
-        <is>
-          <t>60.5</t>
-        </is>
-      </c>
+      <c r="D2243" t="inlineStr"/>
+      <c r="E2243" t="inlineStr"/>
+      <c r="F2243" t="inlineStr"/>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr"/>
-      <c r="D2244" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr"/>
-      <c r="F2244" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr">
         <is>
           <t>3</t>
@@ -58610,210 +58502,242 @@
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr"/>
       <c r="D2245" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2245" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr"/>
       <c r="D2246" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2246" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2246" t="inlineStr"/>
       <c r="F2246" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr"/>
       <c r="D2247" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr"/>
       <c r="D2248" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>0.623M</t>
         </is>
       </c>
       <c r="E2248" t="inlineStr"/>
-      <c r="F2248" t="inlineStr"/>
+      <c r="F2248" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr"/>
       <c r="D2249" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2249" t="inlineStr"/>
-      <c r="F2249" t="inlineStr"/>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="G2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2250" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+        </is>
+      </c>
       <c r="C2250" t="inlineStr"/>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr"/>
       <c r="F2250" t="inlineStr"/>
-      <c r="G2250" t="inlineStr"/>
+      <c r="G2250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2251" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJUL</t>
+        </is>
+      </c>
       <c r="C2251" t="inlineStr"/>
-      <c r="D2251" t="inlineStr"/>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E2251" t="inlineStr"/>
-      <c r="F2251" t="inlineStr"/>
-      <c r="G2251" t="inlineStr"/>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2252" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2252" t="inlineStr"/>
-      <c r="D2252" t="inlineStr"/>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E2252" t="inlineStr"/>
-      <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr"/>
+      <c r="F2252" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr"/>
-      <c r="D2253" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr"/>
-      <c r="F2253" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr">
         <is>
           <t>3</t>
@@ -58828,15 +58752,11 @@
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr"/>
-      <c r="D2254" t="inlineStr">
-        <is>
-          <t>4.245%</t>
-        </is>
-      </c>
+      <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
@@ -58848,18 +58768,18 @@
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr"/>
       <c r="D2255" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2255" t="inlineStr"/>
@@ -58873,25 +58793,33 @@
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2256" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/24</t>
+        </is>
+      </c>
       <c r="C2256" t="inlineStr"/>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr"/>
+      <c r="G2256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr"/>
@@ -58900,27 +58828,23 @@
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr"/>
-      <c r="D2258" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr"/>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
@@ -58930,28 +58854,24 @@
       </c>
     </row>
     <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2259" t="inlineStr"/>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr"/>
       <c r="D2259" t="inlineStr">
         <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="E2259" t="inlineStr"/>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1.394M</t>
+        </is>
+      </c>
+      <c r="E2259" t="inlineStr">
+        <is>
+          <t>1.39M</t>
+        </is>
+      </c>
+      <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
           <t>3</t>
@@ -58959,28 +58879,16 @@
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr"/>
-      <c r="D2260" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
-      <c r="F2260" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
           <t>3</t>
@@ -58990,158 +58898,166 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr"/>
       <c r="C2261" t="inlineStr"/>
-      <c r="D2261" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr"/>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2261" t="inlineStr"/>
+      <c r="G2261" t="inlineStr"/>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr"/>
-      <c r="D2262" t="inlineStr"/>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
       <c r="E2262" t="inlineStr"/>
-      <c r="F2262" t="inlineStr"/>
+      <c r="F2262" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr">
         <is>
-          <t>$21.94T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2263" t="inlineStr"/>
-      <c r="F2263" t="inlineStr"/>
+      <c r="F2263" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G2263" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr"/>
       <c r="D2264" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="E2264" t="inlineStr"/>
-      <c r="F2264" t="inlineStr"/>
+      <c r="F2264" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
       <c r="G2264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2265" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
+        </is>
+      </c>
       <c r="C2265" t="inlineStr"/>
-      <c r="D2265" t="inlineStr"/>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2265" t="inlineStr"/>
-      <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr"/>
+      <c r="F2265" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr"/>
-      <c r="D2266" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+      <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr"/>
-      <c r="D2267" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
+      <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
       <c r="G2267" t="inlineStr">
@@ -59153,1095 +59069,15 @@
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2268" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr"/>
       <c r="C2268" t="inlineStr"/>
-      <c r="D2268" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
+      <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2269">
-      <c r="A2269" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2269" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2269" t="inlineStr"/>
-      <c r="D2269" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E2269" t="inlineStr"/>
-      <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2270">
-      <c r="A2270" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2270" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2270" t="inlineStr"/>
-      <c r="D2270" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2270" t="inlineStr"/>
-      <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2271">
-      <c r="A2271" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2271" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2271" t="inlineStr"/>
-      <c r="D2271" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2271" t="inlineStr"/>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2272">
-      <c r="A2272" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2272" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2272" t="inlineStr"/>
-      <c r="D2272" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2272" t="inlineStr"/>
-      <c r="F2272" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2273">
-      <c r="A2273" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2273" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2273" t="inlineStr"/>
-      <c r="D2273" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2273" t="inlineStr"/>
-      <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2274" t="inlineStr"/>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2275">
-      <c r="A2275" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2275" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2275" t="inlineStr"/>
-      <c r="D2275" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr"/>
-      <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2276">
-      <c r="A2276" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr"/>
-      <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2277">
-      <c r="A2277" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2277" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2277" t="inlineStr"/>
-      <c r="D2277" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2277" t="inlineStr"/>
-      <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2278">
-      <c r="A2278" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2278" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2278" t="inlineStr"/>
-      <c r="D2278" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2278" t="inlineStr"/>
-      <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2279">
-      <c r="A2279" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2279" t="inlineStr"/>
-      <c r="D2279" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr"/>
-      <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2280">
-      <c r="A2280" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2280" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2280" t="inlineStr"/>
-      <c r="D2280" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2280" t="inlineStr"/>
-      <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2281">
-      <c r="A2281" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr"/>
-      <c r="D2281" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr"/>
-      <c r="F2281" t="inlineStr"/>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2282">
-      <c r="A2282" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2282" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2282" t="inlineStr"/>
-      <c r="D2282" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr"/>
-      <c r="F2282" t="inlineStr"/>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2283">
-      <c r="A2283" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2283" t="inlineStr"/>
-      <c r="D2283" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2283" t="inlineStr"/>
-      <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2284">
-      <c r="A2284" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2284" t="inlineStr"/>
-      <c r="C2284" t="inlineStr"/>
-      <c r="D2284" t="inlineStr"/>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
-    </row>
-    <row r="2285">
-      <c r="A2285" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2285" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2285" t="inlineStr"/>
-      <c r="D2285" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2286">
-      <c r="A2286" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr"/>
-      <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2287">
-      <c r="A2287" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2288">
-      <c r="A2288" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr"/>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2290">
-      <c r="A2290" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2290" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2290" t="inlineStr"/>
-      <c r="D2290" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2290" t="inlineStr"/>
-      <c r="F2290" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2291">
-      <c r="A2291" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2291" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2291" t="inlineStr"/>
-      <c r="D2291" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2291" t="inlineStr"/>
-      <c r="F2291" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2292">
-      <c r="A2292" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2292" t="inlineStr"/>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2293">
-      <c r="A2293" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2293" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2293" t="inlineStr"/>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2294">
-      <c r="A2294" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2294" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr"/>
-      <c r="E2294" t="inlineStr"/>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2295" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2296" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2297">
-      <c r="A2297" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2298">
-      <c r="A2298" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2298" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2299">
-      <c r="A2299" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2299" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2299" t="inlineStr"/>
-      <c r="D2299" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2300">
-      <c r="A2300" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2300" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2300" t="inlineStr"/>
-      <c r="D2300" t="inlineStr"/>
-      <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2301">
-      <c r="A2301" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2302">
-      <c r="A2302" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2302" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr"/>
-      <c r="E2302" t="inlineStr"/>
-      <c r="F2302" t="inlineStr"/>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2303">
-      <c r="A2303" t="inlineStr"/>
-      <c r="B2303" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2303" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2304">
-      <c r="A2304" t="inlineStr"/>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr"/>
-      <c r="E2304" t="inlineStr"/>
-      <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr"/>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr"/>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr"/>
+      <c r="G2268" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2348"/>
+  <dimension ref="A1:G2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,10 +58434,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -58471,10 +58469,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -58508,10 +58504,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -58545,10 +58539,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -58582,10 +58574,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -58619,10 +58609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -58656,10 +58644,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -58693,10 +58679,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -58726,10 +58710,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -58759,10 +58741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -58792,10 +58772,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -58821,10 +58799,8 @@
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -58850,10 +58826,8 @@
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -58879,10 +58853,8 @@
       </c>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -58908,10 +58880,8 @@
       </c>
       <c r="E2255" t="inlineStr"/>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -58937,10 +58907,8 @@
       </c>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -58970,10 +58938,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -59003,10 +58969,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -59040,10 +59004,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -59061,10 +59023,8 @@
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -59098,10 +59058,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -59135,10 +59093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -59168,10 +59124,8 @@
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -59193,10 +59147,8 @@
       </c>
       <c r="E2264" t="inlineStr"/>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -59218,10 +59170,8 @@
       </c>
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -59243,10 +59193,8 @@
       </c>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -59268,10 +59216,8 @@
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -59289,10 +59235,8 @@
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -59314,10 +59258,8 @@
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -59339,10 +59281,8 @@
       </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -59364,10 +59304,8 @@
       </c>
       <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -59389,10 +59327,8 @@
       </c>
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -59410,90 +59346,72 @@
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+          <t>4.942%</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
+      <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr"/>
       <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2276" t="inlineStr"/>
+      <c r="E2276" t="inlineStr"/>
+      <c r="F2276" t="inlineStr"/>
+      <c r="G2276" t="inlineStr"/>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
@@ -59503,19 +59421,19 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
@@ -59532,19 +59450,19 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
@@ -59556,57 +59474,53 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Continuing Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>1956K</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1952.0K</t>
         </is>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
@@ -59618,214 +59532,254 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr"/>
       <c r="D2283" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr"/>
       <c r="D2284" t="inlineStr">
         <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>0.65M</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr"/>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+        </is>
+      </c>
       <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>46Bcf</t>
+        </is>
+      </c>
       <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJUL</t>
+        </is>
+      </c>
       <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
           <t>3</t>
@@ -59840,13 +59794,13 @@
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>4.270%</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr"/>
@@ -59860,18 +59814,18 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
       <c r="D2291" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2291" t="inlineStr"/>
@@ -59885,54 +59839,66 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/24</t>
+        </is>
+      </c>
       <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>6.75%</t>
+        </is>
+      </c>
       <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr"/>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
@@ -59942,28 +59908,16 @@
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2295" t="inlineStr"/>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -59971,28 +59925,16 @@
       </c>
     </row>
     <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2296" t="inlineStr"/>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -60002,158 +59944,174 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr"/>
       <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
+        </is>
+      </c>
       <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr"/>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+      <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
+      <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
@@ -60165,1131 +60123,15 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr"/>
       <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
+      <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2315" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2315" t="inlineStr"/>
-      <c r="D2315" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2315" t="inlineStr"/>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2316" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2316" t="inlineStr"/>
-      <c r="D2316" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr"/>
-      <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr"/>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2318" t="inlineStr"/>
-      <c r="D2318" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr"/>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2319" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2319" t="inlineStr"/>
-      <c r="D2319" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr"/>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
-      <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
-    </row>
-    <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2321" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr">
-        <is>
-          <t>1952.0K</t>
-        </is>
-      </c>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr">
-        <is>
-          <t>229.5K</t>
-        </is>
-      </c>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr"/>
-      <c r="D2326" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2326" t="inlineStr"/>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr"/>
-      <c r="D2328" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr"/>
-      <c r="D2329" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr"/>
-      <c r="D2330" t="inlineStr">
-        <is>
-          <t>46Bcf</t>
-        </is>
-      </c>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr"/>
-      <c r="D2331" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr"/>
-      <c r="D2332" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2332" t="inlineStr"/>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr"/>
-      <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr"/>
-      <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr"/>
-      <c r="D2335" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr"/>
-      <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr"/>
-      <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr"/>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr"/>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr"/>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr"/>
-      <c r="C2341" t="inlineStr"/>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr"/>
-      <c r="D2342" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>-9%</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr"/>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr"/>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr"/>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr"/>
-      <c r="C2348" t="inlineStr"/>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2348"/>
+  <dimension ref="A1:G2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,10 +58434,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -58471,10 +58469,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -58508,10 +58504,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -58545,10 +58539,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -58582,10 +58574,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -58619,10 +58609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -58656,10 +58644,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -58693,10 +58679,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -58726,10 +58710,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -58759,10 +58741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -58792,10 +58772,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -58821,10 +58799,8 @@
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -58850,10 +58826,8 @@
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -58879,10 +58853,8 @@
       </c>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -58908,10 +58880,8 @@
       </c>
       <c r="E2255" t="inlineStr"/>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -58937,10 +58907,8 @@
       </c>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -58970,10 +58938,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -59003,10 +58969,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -59040,10 +59004,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -59061,10 +59023,8 @@
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -59098,10 +59058,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -59135,10 +59093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -59168,10 +59124,8 @@
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -59197,10 +59151,8 @@
       </c>
       <c r="E2264" t="inlineStr"/>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -59226,10 +59178,8 @@
       </c>
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -59255,10 +59205,8 @@
       </c>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -59284,10 +59232,8 @@
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -59305,10 +59251,8 @@
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -59330,10 +59274,8 @@
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -59355,10 +59297,8 @@
       </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -59380,10 +59320,8 @@
       </c>
       <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -59405,10 +59343,8 @@
       </c>
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -59426,90 +59362,72 @@
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+          <t>4.942%</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
+      <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr"/>
       <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2276" t="inlineStr"/>
+      <c r="E2276" t="inlineStr"/>
+      <c r="F2276" t="inlineStr"/>
+      <c r="G2276" t="inlineStr"/>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
@@ -59519,19 +59437,19 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
@@ -59548,19 +59466,19 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
@@ -59572,57 +59490,53 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Continuing Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>1956K</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1952.0K</t>
         </is>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
@@ -59634,214 +59548,254 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr"/>
       <c r="D2283" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr"/>
       <c r="D2284" t="inlineStr">
         <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>0.65M</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr"/>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+        </is>
+      </c>
       <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>46Bcf</t>
+        </is>
+      </c>
       <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJUL</t>
+        </is>
+      </c>
       <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
           <t>3</t>
@@ -59856,13 +59810,13 @@
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>4.270%</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr"/>
@@ -59876,18 +59830,18 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
       <c r="D2291" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2291" t="inlineStr"/>
@@ -59901,54 +59855,66 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/24</t>
+        </is>
+      </c>
       <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>6.75%</t>
+        </is>
+      </c>
       <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr"/>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
@@ -59958,28 +59924,16 @@
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2295" t="inlineStr"/>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -59987,28 +59941,16 @@
       </c>
     </row>
     <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2296" t="inlineStr"/>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -60018,158 +59960,174 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr"/>
       <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
+        </is>
+      </c>
       <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr"/>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+      <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
+      <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
@@ -60181,1147 +60139,15 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr"/>
       <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
+      <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2315" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2315" t="inlineStr"/>
-      <c r="D2315" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2315" t="inlineStr"/>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2316" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2316" t="inlineStr"/>
-      <c r="D2316" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr"/>
-      <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr"/>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2318" t="inlineStr"/>
-      <c r="D2318" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr"/>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2319" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2319" t="inlineStr"/>
-      <c r="D2319" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr"/>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
-      <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
-    </row>
-    <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2321" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr">
-        <is>
-          <t>1952.0K</t>
-        </is>
-      </c>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr">
-        <is>
-          <t>229.5K</t>
-        </is>
-      </c>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr"/>
-      <c r="D2326" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2326" t="inlineStr"/>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr"/>
-      <c r="D2328" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr"/>
-      <c r="D2329" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr"/>
-      <c r="D2330" t="inlineStr">
-        <is>
-          <t>46Bcf</t>
-        </is>
-      </c>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr"/>
-      <c r="D2331" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr"/>
-      <c r="D2332" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2332" t="inlineStr"/>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr"/>
-      <c r="D2333" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr"/>
-      <c r="D2334" t="inlineStr">
-        <is>
-          <t>4.270%</t>
-        </is>
-      </c>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr"/>
-      <c r="D2335" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr"/>
-      <c r="D2336" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr"/>
-      <c r="D2337" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr"/>
-      <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr"/>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr"/>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr"/>
-      <c r="C2341" t="inlineStr"/>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr"/>
-      <c r="D2342" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>-9%</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr"/>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr"/>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr"/>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr"/>
-      <c r="C2348" t="inlineStr"/>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2348"/>
+  <dimension ref="A1:G2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,10 +58434,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -58471,10 +58469,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -58508,10 +58504,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -58545,10 +58539,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -58582,10 +58574,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -58619,10 +58609,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -58656,10 +58644,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -58693,10 +58679,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -58726,10 +58710,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -58759,10 +58741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -58792,10 +58772,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -58821,10 +58799,8 @@
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -58850,10 +58826,8 @@
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -58879,10 +58853,8 @@
       </c>
       <c r="E2254" t="inlineStr"/>
       <c r="F2254" t="inlineStr"/>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -58908,10 +58880,8 @@
       </c>
       <c r="E2255" t="inlineStr"/>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -58937,10 +58907,8 @@
       </c>
       <c r="E2256" t="inlineStr"/>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -58970,10 +58938,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -59003,10 +58969,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -59040,10 +59004,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2260">
@@ -59061,10 +59023,8 @@
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -59098,10 +59058,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2262">
@@ -59135,10 +59093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -59168,10 +59124,8 @@
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -59197,10 +59151,8 @@
       </c>
       <c r="E2264" t="inlineStr"/>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -59226,10 +59178,8 @@
       </c>
       <c r="E2265" t="inlineStr"/>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -59255,10 +59205,8 @@
       </c>
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -59284,10 +59232,8 @@
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -59305,10 +59251,8 @@
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -59334,10 +59278,8 @@
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -59363,10 +59305,8 @@
       </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -59392,10 +59332,8 @@
       </c>
       <c r="E2271" t="inlineStr"/>
       <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -59421,10 +59359,8 @@
       </c>
       <c r="E2272" t="inlineStr"/>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -59442,90 +59378,72 @@
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr"/>
       <c r="D2275" t="inlineStr">
         <is>
-          <t>1.394M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr">
-        <is>
-          <t>1.39M</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>1.37M</t>
-        </is>
-      </c>
+          <t>4.942%</t>
+        </is>
+      </c>
+      <c r="E2275" t="inlineStr"/>
+      <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>Housing StartsJUN</t>
-        </is>
-      </c>
+          <t>Thursday July 24 2025</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr"/>
       <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>1.29M</t>
-        </is>
-      </c>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D2276" t="inlineStr"/>
+      <c r="E2276" t="inlineStr"/>
+      <c r="F2276" t="inlineStr"/>
+      <c r="G2276" t="inlineStr"/>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
@@ -59535,19 +59453,19 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>Chicago Fed National Activity IndexJUN</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="E2277" t="inlineStr"/>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
@@ -59564,19 +59482,19 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Initial Jobless ClaimsJUL/19</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>221K</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
@@ -59588,57 +59506,53 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Continuing Jobless ClaimsJUL/12</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
       <c r="D2279" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>1956K</t>
+        </is>
+      </c>
+      <c r="E2279" t="inlineStr"/>
       <c r="F2279" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>1952.0K</t>
         </is>
       </c>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>231.0K</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
@@ -59650,214 +59564,254 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr"/>
       <c r="D2283" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E2283" t="inlineStr"/>
       <c r="F2283" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr"/>
       <c r="D2284" t="inlineStr">
         <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr"/>
-      <c r="F2284" t="inlineStr"/>
+          <t>0.623M</t>
+        </is>
+      </c>
+      <c r="E2284" t="inlineStr">
+        <is>
+          <t>0.65M</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>-13.7%</t>
         </is>
       </c>
       <c r="E2285" t="inlineStr"/>
-      <c r="F2285" t="inlineStr"/>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>Saturday July 19 2025</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
+        </is>
+      </c>
       <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr"/>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>46Bcf</t>
+        </is>
+      </c>
       <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJUL</t>
+        </is>
+      </c>
       <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr"/>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr"/>
       <c r="D2289" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
           <t>3</t>
@@ -59872,13 +59826,13 @@
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>4.245%</t>
+          <t>4.270%</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr"/>
@@ -59892,18 +59846,18 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
       <c r="D2291" t="inlineStr">
         <is>
-          <t>4.125%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E2291" t="inlineStr"/>
@@ -59917,52 +59871,68 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateJUL/24</t>
+        </is>
+      </c>
       <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr"/>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
       <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr"/>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>6.75%</t>
+        </is>
+      </c>
       <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
       <c r="D2294" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$6.66T</t>
         </is>
       </c>
       <c r="E2294" t="inlineStr"/>
@@ -59974,28 +59944,16 @@
       </c>
     </row>
     <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2295" t="inlineStr"/>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -60003,28 +59961,16 @@
       </c>
     </row>
     <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A2296" t="inlineStr"/>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
+          <t>Building Permits MoM FinalJUN</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -60034,158 +59980,174 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Friday July 25 2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr"/>
       <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E2298" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>Money SupplyJUN</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E2299" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>19.1M</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
+        </is>
+      </c>
       <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr"/>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr"/>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
+      <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr"/>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
+      <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr"/>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
@@ -60197,1151 +60159,15 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
+          <t>Saturday July 26 2025</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr"/>
       <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
+      <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2315" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2315" t="inlineStr"/>
-      <c r="D2315" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E2315" t="inlineStr"/>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2316" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2316" t="inlineStr"/>
-      <c r="D2316" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr"/>
-      <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr"/>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2318" t="inlineStr"/>
-      <c r="D2318" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr"/>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2319" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C2319" t="inlineStr"/>
-      <c r="D2319" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr"/>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
-      <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
-    </row>
-    <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2321" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr">
-        <is>
-          <t>1952.0K</t>
-        </is>
-      </c>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr">
-        <is>
-          <t>229.5K</t>
-        </is>
-      </c>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2326">
-      <c r="A2326" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2326" t="inlineStr"/>
-      <c r="D2326" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2326" t="inlineStr"/>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2327">
-      <c r="A2327" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E2327" t="inlineStr"/>
-      <c r="F2327" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2328" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C2328" t="inlineStr"/>
-      <c r="D2328" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2329" t="inlineStr"/>
-      <c r="D2329" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E2329" t="inlineStr"/>
-      <c r="F2329" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2330" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C2330" t="inlineStr"/>
-      <c r="D2330" t="inlineStr">
-        <is>
-          <t>46Bcf</t>
-        </is>
-      </c>
-      <c r="E2330" t="inlineStr"/>
-      <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2331" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2331" t="inlineStr"/>
-      <c r="D2331" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E2331" t="inlineStr"/>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2332" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C2332" t="inlineStr"/>
-      <c r="D2332" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E2332" t="inlineStr"/>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2333" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2333" t="inlineStr"/>
-      <c r="D2333" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E2333" t="inlineStr"/>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2334" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2334" t="inlineStr"/>
-      <c r="D2334" t="inlineStr">
-        <is>
-          <t>4.270%</t>
-        </is>
-      </c>
-      <c r="E2334" t="inlineStr"/>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2335" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C2335" t="inlineStr"/>
-      <c r="D2335" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E2335" t="inlineStr"/>
-      <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2336" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2336" t="inlineStr"/>
-      <c r="D2336" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E2336" t="inlineStr"/>
-      <c r="F2336" t="inlineStr"/>
-      <c r="G2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2337" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C2337" t="inlineStr"/>
-      <c r="D2337" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
-      <c r="E2337" t="inlineStr"/>
-      <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr"/>
-      <c r="D2338" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" t="inlineStr"/>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr"/>
-      <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr"/>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr"/>
-      <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
-      <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B2341" t="inlineStr"/>
-      <c r="C2341" t="inlineStr"/>
-      <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr"/>
-      <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr"/>
-      <c r="D2342" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>-9%</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr"/>
-      <c r="D2343" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr"/>
-      <c r="D2344" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B2345" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C2345" t="inlineStr"/>
-      <c r="D2345" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr"/>
-      <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2347" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C2347" t="inlineStr"/>
-      <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" t="inlineStr">
-        <is>
-          <t>Saturday July 26 2025</t>
-        </is>
-      </c>
-      <c r="B2348" t="inlineStr"/>
-      <c r="C2348" t="inlineStr"/>
-      <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
